--- a/medicine/Mort/Frankenweenie_(film,_2012)/Frankenweenie_(film,_2012).xlsx
+++ b/medicine/Mort/Frankenweenie_(film,_2012)/Frankenweenie_(film,_2012).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frankenweenie est le 124e long-métrage d'animation des studios Disney. Réalisé par Tim Burton et sorti en 2012, il s'agit de l'adaptation en version longue de Frankenweenie, un court-métrage réalisé par Burton en 1984.
-Contrairement à ce dernier, le film a été réalisé en stop-motion, technique déjà utilisée pour L'Étrange Noël de monsieur Jack et Les Noces funèbres, et tourné en noir et blanc avec un Canon EOS 5D Mark II (appareil photo numérique). Il a ensuite été converti en 3D stéréoscopique en postproduction[1].
+Contrairement à ce dernier, le film a été réalisé en stop-motion, technique déjà utilisée pour L'Étrange Noël de monsieur Jack et Les Noces funèbres, et tourné en noir et blanc avec un Canon EOS 5D Mark II (appareil photo numérique). Il a ensuite été converti en 3D stéréoscopique en postproduction.
 </t>
         </is>
       </c>
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation générale
-Victor Frankenstein est un jeune garçon solitaire qui vit avec sa famille et son chien Sparky. Introverti à l'école, Victor n'a que peu d'amis et, pour mieux être avec les autres, se fait inscrire à un tournoi de baseball. Mais, pendant le match en allant chercher la balle, Sparky meurt écrasé par une voiture. Victor est totalement désespéré. Néanmoins il retrouve espoir en classe, lorsque M. Rzykruski, son professeur de sciences apprend à ses élèves que même mort, un animal réagit au contact de l'électricité et leur demande de réaliser une expérience sur ce sujet. Le soir même, Victor part déterrer son chien, et lui redonne vie grâce à l'électricité. Il ne se doute alors pas des ennuis qui vont arriver.
-Synopsis détaillé
-Victor Frankenstein, un jeune scientifique et cinéaste amateur, vit avec ses parents et son chien bien-aimé, Sparky, dans la ville tranquille de la New Hollande. Son intelligence est reconnue par ses camarades de classe à l'école, qui comprennent sa sombre voisine d'à côté, Elsa Van Helsing, léespiègle Edgar "E" Gore, l'obèse et crédule Bob, le trop confiant Toshiaki, le effrayant Nassor et une fille excentrique surnommée "la fillette étrange", mais le père se  préoccupe de l'isolement de Victor et l’encourage à jouer au baseball. Lorsque Victor frappe un coup de circuit lors de son premier match, Sparky poursuit le ballon et est frappé et tué par une voiture.
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Victor Frankenstein est un jeune garçon solitaire qui vit avec sa famille et son chien Sparky. Introverti à l'école, Victor n'a que peu d'amis et, pour mieux être avec les autres, se fait inscrire à un tournoi de baseball. Mais, pendant le match en allant chercher la balle, Sparky meurt écrasé par une voiture. Victor est totalement désespéré. Néanmoins il retrouve espoir en classe, lorsque M. Rzykruski, son professeur de sciences apprend à ses élèves que même mort, un animal réagit au contact de l'électricité et leur demande de réaliser une expérience sur ce sujet. Le soir même, Victor part déterrer son chien, et lui redonne vie grâce à l'électricité. Il ne se doute alors pas des ennuis qui vont arriver.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synopsis détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Victor Frankenstein, un jeune scientifique et cinéaste amateur, vit avec ses parents et son chien bien-aimé, Sparky, dans la ville tranquille de la New Hollande. Son intelligence est reconnue par ses camarades de classe à l'école, qui comprennent sa sombre voisine d'à côté, Elsa Van Helsing, léespiègle Edgar "E" Gore, l'obèse et crédule Bob, le trop confiant Toshiaki, le effrayant Nassor et une fille excentrique surnommée "la fillette étrange", mais le père se  préoccupe de l'isolement de Victor et l’encourage à jouer au baseball. Lorsque Victor frappe un coup de circuit lors de son premier match, Sparky poursuit le ballon et est frappé et tué par une voiture.
 Inspiré par son nouveau professeur de sciences M. Rzykruski sur l'effet de l'électricité sur les grenouilles mortes, Victor déterre Sparky, amène le chien dans un laboratoire de fortune dans son grenier et réanime avec succès son vieil ami avec un éclair. Alors que Victor est à l'école le lendemain, Sparky s'échappe du grenier pour chasser le chat de la fillette étrange, M. Moustache, et explore ensuite le quartier. Il est reconnu par Edgar, qui fait chanter Victor pour qu'il lui apprenne à réanimer les morts. Ensemble, les deux ressuscitent un poisson rouge mort, qui devient invisible en raison d'une erreur dans l'expérience. Edgar se vante du poisson à ses camarades de classe, mais lorsqu'il essaie de le montrer à un Nassor sceptique, celui ci disparaît, ce qui l'amène à spéculer que les créatures ressuscitées ne durent que peu de temps.
 Craignant de perdre la prochaine concours scientifique, Toshiaki et Bob fabriquent une fusée à partir de bouteilles de soda, et Bob se casse le bras lorsqu'ils la testent. M. Rzykruski est blâmé pour l'accident et licencié. Le professeur de gymnastique le remplace, mais, avant M. Rzykruski quitte la ville, il est capable de parler avec Victor et de conseiller au garçon d'utiliser la science à bon escient. Edgar révèle accidentellement à Toshiaki, Nassor et Bob que lui et Victor avaient ramené le poisson invisible des morts, et que Victor avait fait de même avec Sparky, ce qui les inspire à essayer de se réanimer par eux-mêmes.
 Les parents de Victor découvrent Sparky dans le grenier et sont effrayés, ce qui fait fuir le chien. Son père commence à lui parler de la gravité de ce qu'il a fait, mais Victor leur dit en larmes qu'il voulait juste récupérer son chien, alors ses parents décident de l'aider à trouver Sparky et à poursuivre la conversation plus tard. Lorsque la famille part, les camarades de classe de Victor envahissent le laboratoire et découvrent les instructions de réanimation. Ils effectuent leurs expériences séparément, mais chacun de leurs animaux morts est transformé en monstre : M. Moustache tient une chauve-souris morte pendant qu'il est électrocuté, ce qui le transforme en un félin vampirique grotesque ; les singes de mer de Bob pouvent respirer hors de l’eau, mais ressemblent à des Gremlins ; le rat mort d'Edgar trouvé dans les ordures se transforme en rat-garou ; le hamster momifié de Nassor, Colossus, revient à la vie ; la tortue de Toshiaki, Shelley, est devenu un Kaijū. Tous les monstres convergent vers la foire de la ville, causant d'énormes dégâts.
@@ -526,31 +578,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Frankenweenie_(film,_2012)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Réalisation : Tim Burton
 Scénario : John August sur une histoire originale de Tim Burton et d’après le scénario de Leonard Ripps du film éponyme de 1984
@@ -571,34 +625,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Frankenweenie_(film,_2012)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Voix originales
-Charlie Tahan : Victor Frankenstein
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Charlie Tahan : Victor Frankenstein
 Martin Short : M. Edward Frankenstein / M. Bergermeister / Nassor
 Catherine O'Hara : Mme Susan Frankenstein / la fille étrange / la prof de gym
 Martin Landau : M. Rzykruski
@@ -607,9 +666,43 @@
 Robert Capron : Bob
 James Hiroyuki Liao : Toshiaki
 Conchata Ferrell : la mère de Bob
-Tom Kenny : un habitant de la Nouvelle-Hollande
-Voix françaises
-Henri Bungert : Victor Frankenstein
+Tom Kenny : un habitant de la Nouvelle-Hollande</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Henri Bungert : Victor Frankenstein
 Pierre Tessier : M. Edward Frankenstein
 François Siener : M. Burgemeister
 Gwenaël Sommier : Nassor
@@ -619,9 +712,43 @@
 Tom Trouffier : Edgar « E » Gore / Bob
 Alexandre Nguyen : Toshiaki
 Karine Foviau : la fillette étrange
-Source : Allodoublage[2]
-Voix québécoises
-Nicolas Poulin : Victor / Thoshiaki
+Source : Allodoublage</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Voix québécoises</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nicolas Poulin : Victor / Thoshiaki
 François Sasseville : M. Edward Frankenstein
 Gilbert Lachance : M. Burgemeister
 Mélanie Laberge : Mme Susan Frankenstein
@@ -633,110 +760,156 @@
 Claudia-Laurie Corbeil : la fille étrange
 Violette Chauveau : la prof de gym
 Johanne Garneau : la mère de Bob
-Source : Doublage.qc.ca[3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Frankenweenie_(film,_2012)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Source : Doublage.qc.ca</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bande originale du film a été composée par Danny Elfman et commercialisée sous le titre Frankenweenie: Original Motion Picture Soundtrack en septembre 2012[4].
-L'album Frankenweenie Unleashed!: Music Inspired by the Motion Picture, sorti le même jour, comprend quant à lui des chansons entendues durant le film, ainsi que des titres qui en sont inspirés[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bande originale du film a été composée par Danny Elfman et commercialisée sous le titre Frankenweenie: Original Motion Picture Soundtrack en septembre 2012.
+L'album Frankenweenie Unleashed!: Music Inspired by the Motion Picture, sorti le même jour, comprend quant à lui des chansons entendues durant le film, ainsi que des titres qui en sont inspirés.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Frankenweenie_(film,_2012)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accueil critique
-Sur l'agrégateur américain Rotten Tomatoes, le film récolte 87 % d'opinions favorables pour 220 critiques[7]. Sur Metacritic, il obtient une note moyenne de 74⁄100 pour 38 critiques[6].
-En France, le site Allociné propose une note moyenne de 3,8⁄5 à partir de l'interprétation de critiques provenant de 28 titres de presse[8].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'agrégateur américain Rotten Tomatoes, le film récolte 87 % d'opinions favorables pour 220 critiques. Sur Metacritic, il obtient une note moyenne de 74⁄100 pour 38 critiques.
+En France, le site Allociné propose une note moyenne de 3,8⁄5 à partir de l'interprétation de critiques provenant de 28 titres de presse.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Frankenweenie_(film,_2012)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Récompenses
-New York Film Critics Circle Awards 2012 : Prix du meilleur film d'animation
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>New York Film Critics Circle Awards 2012 : Prix du meilleur film d'animation
 Boston Society of Film Critics Awards 2012 : Prix du meilleur film d'animation
 Los Angeles Film Critics Association Awards 2012 : Prix du meilleur film d'animation
 Florida Film Critics Circle Awards 2012 : Prix du meilleur film d'animation
 Kansas City Film Critics Circle Awards 2012 : Prix du meilleur film d'animation
-Nevada Film Critics Society Awards 2012 : Prix du meilleur film d'animation
-Nominations
-Golden Globes 2013 : Golden Globe du meilleur film d'animation
+Nevada Film Critics Society Awards 2012 : Prix du meilleur film d'animation</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frankenweenie_(film,_2012)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Golden Globes 2013 : Golden Globe du meilleur film d'animation
 BAFTA Awards 2013 : BAFTA du meilleur film d'animation
 Oscars 2013 : Oscar du meilleur film d'animation</t>
         </is>
